--- a/modeling/results/feature_imp_text_tf-idf.xlsx
+++ b/modeling/results/feature_imp_text_tf-idf.xlsx
@@ -22,304 +22,304 @@
     <t>Importance</t>
   </si>
   <si>
-    <t>liminar</t>
+    <t>concessão</t>
+  </si>
+  <si>
+    <t>concessão ordem</t>
   </si>
   <si>
     <t>deferi</t>
   </si>
   <si>
-    <t>ministro</t>
-  </si>
-  <si>
-    <t>relatório hc</t>
-  </si>
-  <si>
-    <t>concessão ordem</t>
-  </si>
-  <si>
-    <t>código</t>
-  </si>
-  <si>
-    <t>preso</t>
-  </si>
-  <si>
-    <t>pedido liminar</t>
-  </si>
-  <si>
-    <t>aurélio</t>
-  </si>
-  <si>
-    <t>suposta</t>
-  </si>
-  <si>
-    <t>prisão cautelar</t>
-  </si>
-  <si>
-    <t>sob</t>
+    <t>deferimento</t>
+  </si>
+  <si>
+    <t>medidas cautelares</t>
+  </si>
+  <si>
+    <t>decisão proferida</t>
+  </si>
+  <si>
+    <t>deferida</t>
+  </si>
+  <si>
+    <t>deferido</t>
+  </si>
+  <si>
+    <t>justiça indeferiu</t>
+  </si>
+  <si>
+    <t>opina concessão</t>
   </si>
   <si>
     <t>deferi pedido</t>
   </si>
   <si>
-    <t>estado paulo</t>
-  </si>
-  <si>
-    <t>revelou</t>
-  </si>
-  <si>
-    <t>vossa</t>
-  </si>
-  <si>
-    <t>análise</t>
-  </si>
-  <si>
-    <t>neste habeas</t>
-  </si>
-  <si>
-    <t>processo nº</t>
-  </si>
-  <si>
-    <t>eis</t>
+    <t>opina deferimento</t>
+  </si>
+  <si>
+    <t>liminar deferida</t>
+  </si>
+  <si>
+    <t>http</t>
+  </si>
+  <si>
+    <t>http sob</t>
+  </si>
+  <si>
+    <t>inadmissão</t>
+  </si>
+  <si>
+    <t>enunciado súmula</t>
+  </si>
+  <si>
+    <t>liminar hc</t>
+  </si>
+  <si>
+    <t>república concessão</t>
+  </si>
+  <si>
+    <t>pleito revogação</t>
+  </si>
+  <si>
+    <t>aguarde liberdade</t>
+  </si>
+  <si>
+    <t>ordem prisão</t>
+  </si>
+  <si>
+    <t>indeferiu liminarmente</t>
+  </si>
+  <si>
+    <t>componentes</t>
+  </si>
+  <si>
+    <t>campo</t>
+  </si>
+  <si>
+    <t>cautelares previstas</t>
+  </si>
+  <si>
+    <t>suspender</t>
+  </si>
+  <si>
+    <t>senha</t>
+  </si>
+  <si>
+    <t>sob código</t>
+  </si>
+  <si>
+    <t>justiça nº</t>
+  </si>
+  <si>
+    <t>código senha</t>
+  </si>
+  <si>
+    <t>precário</t>
+  </si>
+  <si>
+    <t>campo precário</t>
+  </si>
+  <si>
+    <t>deferimento liminar</t>
+  </si>
+  <si>
+    <t>precário efêmero</t>
+  </si>
+  <si>
+    <t>efêmero</t>
+  </si>
+  <si>
+    <t>proferida ministro</t>
+  </si>
+  <si>
+    <t>decisão implicou</t>
+  </si>
+  <si>
+    <t>stj indeferiu</t>
+  </si>
+  <si>
+    <t>manifesta ilegalidade</t>
+  </si>
+  <si>
+    <t>senha relatório</t>
+  </si>
+  <si>
+    <t>anotou</t>
+  </si>
+  <si>
+    <t>flagrante preventiva</t>
+  </si>
+  <si>
+    <t>provisória formulado</t>
+  </si>
+  <si>
+    <t>outro motivo</t>
+  </si>
+  <si>
+    <t>relatório http</t>
+  </si>
+  <si>
+    <t>autos síntese</t>
+  </si>
+  <si>
+    <t>ficou</t>
+  </si>
+  <si>
+    <t>senha primeira</t>
   </si>
   <si>
     <t>informado</t>
   </si>
   <si>
-    <t>informações juízo</t>
-  </si>
-  <si>
-    <t>óbice</t>
-  </si>
-  <si>
-    <t>rio</t>
-  </si>
-  <si>
-    <t>http</t>
-  </si>
-  <si>
-    <t>santa</t>
-  </si>
-  <si>
-    <t>argumenta</t>
-  </si>
-  <si>
-    <t>estarem</t>
-  </si>
-  <si>
-    <t>outro motivo</t>
-  </si>
-  <si>
-    <t>aludindo</t>
-  </si>
-  <si>
-    <t>senha primeira</t>
-  </si>
-  <si>
-    <t>senha</t>
-  </si>
-  <si>
-    <t>união favor</t>
-  </si>
-  <si>
-    <t>lavra ilustre</t>
-  </si>
-  <si>
-    <t>cuja</t>
-  </si>
-  <si>
-    <t>campo</t>
+    <t>arquivado</t>
+  </si>
+  <si>
+    <t>efeitos ordem</t>
+  </si>
+  <si>
+    <t>eis informado</t>
+  </si>
+  <si>
+    <t>julgado turma</t>
+  </si>
+  <si>
+    <t>liminar espécie</t>
+  </si>
+  <si>
+    <t>decisão julgamento</t>
+  </si>
+  <si>
+    <t>benefício liberdade</t>
+  </si>
+  <si>
+    <t>ser julgado</t>
+  </si>
+  <si>
+    <t>revelador</t>
+  </si>
+  <si>
+    <t>contornos</t>
+  </si>
+  <si>
+    <t>república parecer</t>
+  </si>
+  <si>
+    <t>contornos impetração</t>
+  </si>
+  <si>
+    <t>violência grave</t>
+  </si>
+  <si>
+    <t>informado análise</t>
+  </si>
+  <si>
+    <t>informações paciente</t>
+  </si>
+  <si>
+    <t>revelou contornos</t>
+  </si>
+  <si>
+    <t>análise pedido</t>
+  </si>
+  <si>
+    <t>requereu campo</t>
+  </si>
+  <si>
+    <t>aumento</t>
+  </si>
+  <si>
+    <t>preventiva fundamentos</t>
+  </si>
+  <si>
+    <t>afastamento enunciado</t>
+  </si>
+  <si>
+    <t>cognição</t>
+  </si>
+  <si>
+    <t>impetração eis</t>
+  </si>
+  <si>
+    <t>implicou deferimento</t>
+  </si>
+  <si>
+    <t>sobrestamento</t>
+  </si>
+  <si>
+    <t>ficou assim</t>
+  </si>
+  <si>
+    <t>assessoria</t>
   </si>
   <si>
     <t>assim revelou</t>
   </si>
   <si>
-    <t>arma fogo</t>
-  </si>
-  <si>
-    <t>garantir ordem</t>
-  </si>
-  <si>
-    <t>busca confirmação</t>
-  </si>
-  <si>
-    <t>relatório http</t>
-  </si>
-  <si>
-    <t>infrações</t>
-  </si>
-  <si>
-    <t>uso</t>
-  </si>
-  <si>
-    <t>precário</t>
-  </si>
-  <si>
-    <t>tribunal júri</t>
-  </si>
-  <si>
-    <t>análise pedido</t>
-  </si>
-  <si>
-    <t>informado análise</t>
-  </si>
-  <si>
-    <t>extraordinário</t>
-  </si>
-  <si>
-    <t>senha relatório</t>
-  </si>
-  <si>
-    <t>dado</t>
-  </si>
-  <si>
-    <t>chavespúblicas</t>
-  </si>
-  <si>
-    <t>hc mt</t>
-  </si>
-  <si>
-    <t>distribuído</t>
-  </si>
-  <si>
-    <t>contornos impetração</t>
-  </si>
-  <si>
-    <t>utilização</t>
-  </si>
-  <si>
-    <t>impetração eis</t>
-  </si>
-  <si>
-    <t>soltura paciente</t>
-  </si>
-  <si>
-    <t>aurélio assessor</t>
-  </si>
-  <si>
-    <t>ilegalidade ser</t>
-  </si>
-  <si>
-    <t>contornos</t>
-  </si>
-  <si>
-    <t>obstáculo</t>
-  </si>
-  <si>
-    <t>tutela</t>
-  </si>
-  <si>
-    <t>revelou contornos</t>
-  </si>
-  <si>
-    <t>multa</t>
-  </si>
-  <si>
-    <t>ocorreu</t>
-  </si>
-  <si>
-    <t>mascarenhas lacerda</t>
-  </si>
-  <si>
-    <t>substituição custódia</t>
-  </si>
-  <si>
-    <t>min gilmar</t>
-  </si>
-  <si>
-    <t>previstas artigos</t>
-  </si>
-  <si>
-    <t>poder público</t>
-  </si>
-  <si>
-    <t>requereu campo</t>
-  </si>
-  <si>
-    <t>aplicabilidade</t>
-  </si>
-  <si>
-    <t>privação liberdade</t>
-  </si>
-  <si>
-    <t>municipal</t>
-  </si>
-  <si>
-    <t>lavra ministro</t>
-  </si>
-  <si>
-    <t>devendo ser</t>
-  </si>
-  <si>
-    <t>liminar anteriormente</t>
-  </si>
-  <si>
-    <t>ministro napoleão</t>
-  </si>
-  <si>
-    <t>inexistente</t>
-  </si>
-  <si>
-    <t>independentemente</t>
-  </si>
-  <si>
-    <t>foro central</t>
-  </si>
-  <si>
-    <t>paciente possui</t>
-  </si>
-  <si>
-    <t>texto</t>
-  </si>
-  <si>
-    <t>respectivo</t>
-  </si>
-  <si>
-    <t>relação paciente</t>
-  </si>
-  <si>
-    <t>abril seguinte</t>
-  </si>
-  <si>
-    <t>delituoso</t>
-  </si>
-  <si>
-    <t>linha</t>
-  </si>
-  <si>
-    <t>min sepúlveda</t>
-  </si>
-  <si>
-    <t>excelência novembro</t>
-  </si>
-  <si>
-    <t>dificultou</t>
-  </si>
-  <si>
-    <t>homicídio triplamente</t>
-  </si>
-  <si>
-    <t>estrutura</t>
-  </si>
-  <si>
-    <t>efêmero afastamento</t>
-  </si>
-  <si>
-    <t>sob sigilo</t>
-  </si>
-  <si>
-    <t>quinhentos</t>
-  </si>
-  <si>
-    <t>sede processual</t>
-  </si>
-  <si>
-    <t>converteu preventivas</t>
-  </si>
-  <si>
-    <t>república preliminarmente</t>
-  </si>
-  <si>
-    <t>hc ro</t>
+    <t>idêntica medida</t>
+  </si>
+  <si>
+    <t>resumida</t>
+  </si>
+  <si>
+    <t>gabinete prestou</t>
+  </si>
+  <si>
+    <t>assim resumida</t>
+  </si>
+  <si>
+    <t>liminar suspender</t>
+  </si>
+  <si>
+    <t>suspender efeitos</t>
+  </si>
+  <si>
+    <t>espécie ficou</t>
+  </si>
+  <si>
+    <t>decretada desfavor</t>
+  </si>
+  <si>
+    <t>natureza infração</t>
+  </si>
+  <si>
+    <t>fundamentos insubsistência</t>
+  </si>
+  <si>
+    <t>liminar assessor</t>
+  </si>
+  <si>
+    <t>inexistir ilegalidade</t>
+  </si>
+  <si>
+    <t>aurélio decisão</t>
+  </si>
+  <si>
+    <t>assessoria prestou</t>
+  </si>
+  <si>
+    <t>deferida assessoria</t>
+  </si>
+  <si>
+    <t>extração</t>
+  </si>
+  <si>
+    <t>cautelar pois</t>
+  </si>
+  <si>
+    <t>juízo criminal</t>
+  </si>
+  <si>
+    <t>resumida prisão</t>
+  </si>
+  <si>
+    <t>brasília residência</t>
+  </si>
+  <si>
+    <t>deserção</t>
+  </si>
+  <si>
+    <t>indispensáveis</t>
   </si>
 </sst>
 </file>
@@ -696,7 +696,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.06343266197312024</v>
+        <v>0.06929410917780311</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -704,7 +704,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.06026764285753804</v>
+        <v>0.0484560915784293</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -712,7 +712,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.05375714264861015</v>
+        <v>0.04196681962095142</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -720,7 +720,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.04643344574571601</v>
+        <v>0.03840399143675511</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -728,7 +728,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.04274548680181162</v>
+        <v>0.03129344222335759</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -736,7 +736,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.04122330590794059</v>
+        <v>0.02830048053134733</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -744,7 +744,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.03443811038300961</v>
+        <v>0.02289325142737429</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -752,7 +752,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0.03290493826977339</v>
+        <v>0.0220806193574887</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -760,7 +760,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.03120531676437416</v>
+        <v>0.01980895197096378</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -768,7 +768,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.02539031844554314</v>
+        <v>0.01658180465609436</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -776,7 +776,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.02483259588565725</v>
+        <v>0.01542199845071315</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -784,7 +784,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.0242667268167696</v>
+        <v>0.01516023164381207</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -792,7 +792,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.02375741522673806</v>
+        <v>0.01450565429715974</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -800,7 +800,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0.02324477922325292</v>
+        <v>0.01420183408864713</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -808,7 +808,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>0.01851925177883386</v>
+        <v>0.01416365359268038</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -816,7 +816,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0.01725795221977396</v>
+        <v>0.01414628381254083</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -824,7 +824,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0.01599987259404625</v>
+        <v>0.01413990001292781</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -832,7 +832,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0.0152157202762205</v>
+        <v>0.01390072324419604</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -840,7 +840,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>0.01383977456691079</v>
+        <v>0.01369362885317602</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -848,7 +848,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>0.01302893316879347</v>
+        <v>0.01355305009915854</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -856,7 +856,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>0.01287642254017118</v>
+        <v>0.01286468993282018</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -864,7 +864,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>0.01176898708849534</v>
+        <v>0.01247902149358228</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -872,7 +872,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>0.01168502390816593</v>
+        <v>0.01229760490717662</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -880,7 +880,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>0.01119894113763384</v>
+        <v>0.01219063594778442</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -888,7 +888,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>0.01073162320572813</v>
+        <v>0.01184866702253755</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -896,7 +896,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>0.01026047930220895</v>
+        <v>0.01135059167823444</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -904,7 +904,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>0.009784215861277651</v>
+        <v>0.01133840953616118</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -912,7 +912,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>0.009768885285909813</v>
+        <v>0.01082070738155321</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -920,7 +920,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>0.009743129156201196</v>
+        <v>0.01053962244740371</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -928,7 +928,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>0.008683692957161766</v>
+        <v>0.01045569405234399</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -936,7 +936,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>0.008666468352567494</v>
+        <v>0.009938573301062121</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -944,7 +944,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>0.008119744034230204</v>
+        <v>0.009905108156889894</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -952,7 +952,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>0.007875252969596895</v>
+        <v>0.009880676729988901</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -960,7 +960,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>0.007824606347205146</v>
+        <v>0.009825459576936479</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -968,7 +968,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>0.007609153000264883</v>
+        <v>0.009416476488796859</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -976,7 +976,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>0.00748913696110921</v>
+        <v>0.00916648763811705</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -984,7 +984,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>0.007420637761759811</v>
+        <v>0.008857751296394496</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -992,7 +992,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>0.007401667057369927</v>
+        <v>0.008746361143709962</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1000,7 +1000,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>0.007252927725878896</v>
+        <v>0.00867217712521646</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1008,7 +1008,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>0.007183043673532913</v>
+        <v>0.008546230066350328</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1016,7 +1016,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>0.007180666821357537</v>
+        <v>0.008309717277598458</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1024,7 +1024,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>0.00709362786898155</v>
+        <v>0.008247604714361378</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1032,7 +1032,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>0.00700215038782842</v>
+        <v>0.008162703688851315</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1040,7 +1040,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>0.006924253590830732</v>
+        <v>0.008157457950539983</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1048,7 +1048,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>0.006885896181965553</v>
+        <v>0.00798379330548381</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1056,7 +1056,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>0.006863708369880742</v>
+        <v>0.007923334165648901</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1064,7 +1064,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>0.006667564015547809</v>
+        <v>0.007874426518309819</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1072,7 +1072,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>0.006402955521074669</v>
+        <v>0.007851128502230666</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1080,7 +1080,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>0.006397006539212191</v>
+        <v>0.007707433295517267</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1088,7 +1088,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>0.006120168057617561</v>
+        <v>0.007575624233768899</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1096,7 +1096,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>0.005398904304651174</v>
+        <v>0.007322748628351555</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1104,7 +1104,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>0.005348371103948705</v>
+        <v>0.007141359712669389</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1112,7 +1112,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>0.005158120607921546</v>
+        <v>0.006966110899526436</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1120,7 +1120,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>0.004921836912695988</v>
+        <v>0.006900796825277358</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1128,7 +1128,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>0.004539964169571709</v>
+        <v>0.0067639883575949</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1136,7 +1136,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>0.004336988247712337</v>
+        <v>0.006731476378489264</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1144,7 +1144,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>0.004297521374959851</v>
+        <v>0.006550653474452345</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1152,7 +1152,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>0.004295164423291408</v>
+        <v>0.006549806617815446</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1160,7 +1160,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>0.004162840283247793</v>
+        <v>0.006441180221684971</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1168,7 +1168,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>0.004002811273278681</v>
+        <v>0.006112035250939973</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1176,7 +1176,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>0.003905427007422178</v>
+        <v>0.006095060210203432</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1184,7 +1184,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>0.003887765817929956</v>
+        <v>0.005699849985351438</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1192,7 +1192,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>0.003692100824983752</v>
+        <v>0.005385778120573377</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1200,7 +1200,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>0.003682656672025132</v>
+        <v>0.005346325228384051</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1208,7 +1208,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>0.0036387542828667</v>
+        <v>0.005292710678882232</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1216,7 +1216,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>0.0032495393107204</v>
+        <v>0.005258091271774365</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1224,7 +1224,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>0.003223928573874985</v>
+        <v>0.005185829473193721</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1232,7 +1232,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>0.003203443389336336</v>
+        <v>0.005169627183847514</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1240,7 +1240,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>0.002975819520637649</v>
+        <v>0.005140998211807316</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1248,7 +1248,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>0.002929087311136325</v>
+        <v>0.005006552165079747</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1256,7 +1256,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>0.002779109215640176</v>
+        <v>0.005000008041588865</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1264,7 +1264,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>0.00275466189321488</v>
+        <v>0.004951223647807985</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1272,7 +1272,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>0.002699377344327294</v>
+        <v>0.00490070124250191</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1280,7 +1280,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>0.002615418220168955</v>
+        <v>0.004871986334786748</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1288,7 +1288,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>0.002609852113089476</v>
+        <v>0.0048637080903548</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1296,7 +1296,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>0.002438689339268572</v>
+        <v>0.004680788316578859</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1304,7 +1304,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>0.002185711245526817</v>
+        <v>0.004673212379232506</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1312,7 +1312,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>0.002179002166374127</v>
+        <v>0.004635972227292983</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1320,7 +1320,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>0.00204722197413995</v>
+        <v>0.004584024596010166</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1328,7 +1328,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>0.001981582558823975</v>
+        <v>0.004530613727102549</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1336,7 +1336,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>0.001980587611315562</v>
+        <v>0.00425640656086449</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1344,7 +1344,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>0.001967798548075994</v>
+        <v>0.004209439374983614</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1352,7 +1352,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>0.001714105029563773</v>
+        <v>0.003893186607347959</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1360,7 +1360,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>0.001693304838106688</v>
+        <v>0.003851018387279571</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1368,7 +1368,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>0.0014743935447992</v>
+        <v>0.003824450143602116</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1376,7 +1376,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>0.001473459803247727</v>
+        <v>0.003816024208288622</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1384,7 +1384,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>0.001451588933341363</v>
+        <v>0.003487896429946546</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1392,7 +1392,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>0.001408652837780007</v>
+        <v>0.003447771820577098</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1400,7 +1400,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>0.001336135786305365</v>
+        <v>0.002998359697162424</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1408,7 +1408,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>0.001276518985555044</v>
+        <v>0.002966409010481277</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1416,7 +1416,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>0.00125402288530683</v>
+        <v>0.002918144249329059</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1424,7 +1424,7 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>0.001034668760876473</v>
+        <v>0.002864559867967568</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1432,7 +1432,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>0.0009220073776409563</v>
+        <v>0.00285960075631956</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1440,7 +1440,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>0.0008894010219979718</v>
+        <v>0.002618117540598177</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1448,7 +1448,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>0.0008209851734172793</v>
+        <v>0.002381504602376498</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1456,7 +1456,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>0.0007983490033419573</v>
+        <v>0.00229503678997748</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1464,7 +1464,7 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>0.0003492250376806174</v>
+        <v>0.002084198779579445</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1472,7 +1472,7 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>0.000223900107525868</v>
+        <v>0.001973534583794492</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1480,7 +1480,7 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>0.0001044350342790022</v>
+        <v>0.001882409796595689</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1488,7 +1488,7 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>4.1360961855996E-05</v>
+        <v>0.001718023642824807</v>
       </c>
     </row>
   </sheetData>

--- a/modeling/results/feature_imp_text_tf-idf.xlsx
+++ b/modeling/results/feature_imp_text_tf-idf.xlsx
@@ -31,295 +31,295 @@
     <t>deferi</t>
   </si>
   <si>
-    <t>deferimento</t>
-  </si>
-  <si>
-    <t>medidas cautelares</t>
-  </si>
-  <si>
     <t>decisão proferida</t>
   </si>
   <si>
     <t>deferida</t>
   </si>
   <si>
+    <t>inadmissão</t>
+  </si>
+  <si>
     <t>deferido</t>
   </si>
   <si>
     <t>justiça indeferiu</t>
   </si>
   <si>
+    <t>opina deferimento</t>
+  </si>
+  <si>
+    <t>liminar deferida</t>
+  </si>
+  <si>
+    <t>http sob</t>
+  </si>
+  <si>
+    <t>http</t>
+  </si>
+  <si>
     <t>opina concessão</t>
   </si>
   <si>
+    <t>indeferiu liminarmente</t>
+  </si>
+  <si>
+    <t>ordem prisão</t>
+  </si>
+  <si>
+    <t>campo</t>
+  </si>
+  <si>
+    <t>deferimento liminar</t>
+  </si>
+  <si>
+    <t>justiça nº</t>
+  </si>
+  <si>
+    <t>aumento</t>
+  </si>
+  <si>
+    <t>substituir</t>
+  </si>
+  <si>
+    <t>efêmero</t>
+  </si>
+  <si>
+    <t>liminar hc</t>
+  </si>
+  <si>
+    <t>enunciado</t>
+  </si>
+  <si>
+    <t>precário efêmero</t>
+  </si>
+  <si>
+    <t>senha</t>
+  </si>
+  <si>
+    <t>manifesta ilegalidade</t>
+  </si>
+  <si>
     <t>deferi pedido</t>
   </si>
   <si>
-    <t>opina deferimento</t>
-  </si>
-  <si>
-    <t>liminar deferida</t>
-  </si>
-  <si>
-    <t>http</t>
-  </si>
-  <si>
-    <t>http sob</t>
-  </si>
-  <si>
-    <t>inadmissão</t>
+    <t>código senha</t>
+  </si>
+  <si>
+    <t>senha primeira</t>
+  </si>
+  <si>
+    <t>campo precário</t>
   </si>
   <si>
     <t>enunciado súmula</t>
   </si>
   <si>
-    <t>liminar hc</t>
+    <t>precário</t>
+  </si>
+  <si>
+    <t>cautelares previstas</t>
+  </si>
+  <si>
+    <t>outro motivo</t>
+  </si>
+  <si>
+    <t>componentes</t>
+  </si>
+  <si>
+    <t>flagrante preventiva</t>
+  </si>
+  <si>
+    <t>sob código</t>
+  </si>
+  <si>
+    <t>anotou</t>
+  </si>
+  <si>
+    <t>suspender</t>
+  </si>
+  <si>
+    <t>relatório http</t>
+  </si>
+  <si>
+    <t>cpp art</t>
+  </si>
+  <si>
+    <t>informado</t>
+  </si>
+  <si>
+    <t>subsidiariamente</t>
   </si>
   <si>
     <t>república concessão</t>
   </si>
   <si>
-    <t>pleito revogação</t>
-  </si>
-  <si>
-    <t>aguarde liberdade</t>
-  </si>
-  <si>
-    <t>ordem prisão</t>
-  </si>
-  <si>
-    <t>indeferiu liminarmente</t>
-  </si>
-  <si>
-    <t>componentes</t>
-  </si>
-  <si>
-    <t>campo</t>
-  </si>
-  <si>
-    <t>cautelares previstas</t>
-  </si>
-  <si>
-    <t>suspender</t>
-  </si>
-  <si>
-    <t>senha</t>
-  </si>
-  <si>
-    <t>sob código</t>
-  </si>
-  <si>
-    <t>justiça nº</t>
-  </si>
-  <si>
-    <t>código senha</t>
-  </si>
-  <si>
-    <t>precário</t>
-  </si>
-  <si>
-    <t>campo precário</t>
-  </si>
-  <si>
-    <t>deferimento liminar</t>
-  </si>
-  <si>
-    <t>precário efêmero</t>
-  </si>
-  <si>
-    <t>efêmero</t>
+    <t>senha relatório</t>
+  </si>
+  <si>
+    <t>ficou</t>
+  </si>
+  <si>
+    <t>violência grave</t>
+  </si>
+  <si>
+    <t>decisão implicou</t>
+  </si>
+  <si>
+    <t>contornos</t>
+  </si>
+  <si>
+    <t>revelou contornos</t>
   </si>
   <si>
     <t>proferida ministro</t>
   </si>
   <si>
-    <t>decisão implicou</t>
+    <t>informado análise</t>
+  </si>
+  <si>
+    <t>análise pedido</t>
+  </si>
+  <si>
+    <t>benefício liberdade</t>
+  </si>
+  <si>
+    <t>contornos impetração</t>
+  </si>
+  <si>
+    <t>eis informado</t>
+  </si>
+  <si>
+    <t>assim revelou</t>
+  </si>
+  <si>
+    <t>indiciado réu</t>
+  </si>
+  <si>
+    <t>decisão julgamento</t>
+  </si>
+  <si>
+    <t>impetração eis</t>
+  </si>
+  <si>
+    <t>cognição</t>
+  </si>
+  <si>
+    <t>provisória formulado</t>
+  </si>
+  <si>
+    <t>efeitos ordem</t>
+  </si>
+  <si>
+    <t>liminar espécie</t>
+  </si>
+  <si>
+    <t>paulo indeferiu</t>
+  </si>
+  <si>
+    <t>assessoria</t>
+  </si>
+  <si>
+    <t>art lxi</t>
+  </si>
+  <si>
+    <t>sobrestamento</t>
   </si>
   <si>
     <t>stj indeferiu</t>
   </si>
   <si>
-    <t>manifesta ilegalidade</t>
-  </si>
-  <si>
-    <t>senha relatório</t>
-  </si>
-  <si>
-    <t>anotou</t>
-  </si>
-  <si>
-    <t>flagrante preventiva</t>
-  </si>
-  <si>
-    <t>provisória formulado</t>
-  </si>
-  <si>
-    <t>outro motivo</t>
-  </si>
-  <si>
-    <t>relatório http</t>
-  </si>
-  <si>
     <t>autos síntese</t>
   </si>
   <si>
-    <t>ficou</t>
-  </si>
-  <si>
-    <t>senha primeira</t>
-  </si>
-  <si>
-    <t>informado</t>
-  </si>
-  <si>
     <t>arquivado</t>
   </si>
   <si>
-    <t>efeitos ordem</t>
-  </si>
-  <si>
-    <t>eis informado</t>
-  </si>
-  <si>
-    <t>julgado turma</t>
-  </si>
-  <si>
-    <t>liminar espécie</t>
-  </si>
-  <si>
-    <t>decisão julgamento</t>
-  </si>
-  <si>
-    <t>benefício liberdade</t>
-  </si>
-  <si>
-    <t>ser julgado</t>
-  </si>
-  <si>
-    <t>revelador</t>
-  </si>
-  <si>
-    <t>contornos</t>
-  </si>
-  <si>
-    <t>república parecer</t>
-  </si>
-  <si>
-    <t>contornos impetração</t>
-  </si>
-  <si>
-    <t>violência grave</t>
-  </si>
-  <si>
-    <t>informado análise</t>
-  </si>
-  <si>
-    <t>informações paciente</t>
-  </si>
-  <si>
-    <t>revelou contornos</t>
-  </si>
-  <si>
-    <t>análise pedido</t>
-  </si>
-  <si>
-    <t>requereu campo</t>
-  </si>
-  <si>
-    <t>aumento</t>
+    <t>inexistir ilegalidade</t>
+  </si>
+  <si>
+    <t>assim resumida</t>
+  </si>
+  <si>
+    <t>suspender efeitos</t>
+  </si>
+  <si>
+    <t>afastamento enunciado</t>
+  </si>
+  <si>
+    <t>liminar assessor</t>
   </si>
   <si>
     <t>preventiva fundamentos</t>
   </si>
   <si>
-    <t>afastamento enunciado</t>
-  </si>
-  <si>
-    <t>cognição</t>
-  </si>
-  <si>
-    <t>impetração eis</t>
-  </si>
-  <si>
     <t>implicou deferimento</t>
   </si>
   <si>
-    <t>sobrestamento</t>
+    <t>resumida</t>
+  </si>
+  <si>
+    <t>liminar suspender</t>
+  </si>
+  <si>
+    <t>espécie ficou</t>
   </si>
   <si>
     <t>ficou assim</t>
   </si>
   <si>
-    <t>assessoria</t>
-  </si>
-  <si>
-    <t>assim revelou</t>
-  </si>
-  <si>
-    <t>idêntica medida</t>
-  </si>
-  <si>
-    <t>resumida</t>
+    <t>deferida assessoria</t>
+  </si>
+  <si>
+    <t>assessoria prestou</t>
+  </si>
+  <si>
+    <t>fundamentos insubsistência</t>
+  </si>
+  <si>
+    <t>decretada desfavor</t>
   </si>
   <si>
     <t>gabinete prestou</t>
   </si>
   <si>
-    <t>assim resumida</t>
-  </si>
-  <si>
-    <t>liminar suspender</t>
-  </si>
-  <si>
-    <t>suspender efeitos</t>
-  </si>
-  <si>
-    <t>espécie ficou</t>
-  </si>
-  <si>
-    <t>decretada desfavor</t>
-  </si>
-  <si>
-    <t>natureza infração</t>
-  </si>
-  <si>
-    <t>fundamentos insubsistência</t>
-  </si>
-  <si>
-    <t>liminar assessor</t>
-  </si>
-  <si>
-    <t>inexistir ilegalidade</t>
-  </si>
-  <si>
     <t>aurélio decisão</t>
   </si>
   <si>
-    <t>assessoria prestou</t>
-  </si>
-  <si>
-    <t>deferida assessoria</t>
+    <t>cautelar pois</t>
+  </si>
+  <si>
+    <t>deserção</t>
+  </si>
+  <si>
+    <t>arquivado definitivo</t>
+  </si>
+  <si>
+    <t>juízo criminal</t>
+  </si>
+  <si>
+    <t>definitivo após</t>
+  </si>
+  <si>
+    <t>nova redação</t>
+  </si>
+  <si>
+    <t>liminarmente pedido</t>
+  </si>
+  <si>
+    <t>resumida prisão</t>
+  </si>
+  <si>
+    <t>processo formalizado</t>
   </si>
   <si>
     <t>extração</t>
   </si>
   <si>
-    <t>cautelar pois</t>
-  </si>
-  <si>
-    <t>juízo criminal</t>
-  </si>
-  <si>
-    <t>resumida prisão</t>
-  </si>
-  <si>
-    <t>brasília residência</t>
-  </si>
-  <si>
-    <t>deserção</t>
-  </si>
-  <si>
-    <t>indispensáveis</t>
+    <t>formalizado ato</t>
+  </si>
+  <si>
+    <t>princípio liberdade</t>
   </si>
 </sst>
 </file>
@@ -696,7 +696,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.06929410917780311</v>
+        <v>0.07564684461039187</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -704,7 +704,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.0484560915784293</v>
+        <v>0.0507586278381226</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -712,7 +712,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.04196681962095142</v>
+        <v>0.03992479447625137</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -720,7 +720,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.03840399143675511</v>
+        <v>0.03149311325967514</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -728,7 +728,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.03129344222335759</v>
+        <v>0.02484507571597022</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -736,7 +736,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.02830048053134733</v>
+        <v>0.02312114735493865</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -744,7 +744,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.02289325142737429</v>
+        <v>0.01993288444625413</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -752,7 +752,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0.0220806193574887</v>
+        <v>0.01799223833741901</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -760,7 +760,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.01980895197096378</v>
+        <v>0.01664045918831901</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -768,7 +768,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.01658180465609436</v>
+        <v>0.01614792124175377</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -776,7 +776,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.01542199845071315</v>
+        <v>0.01604116525423725</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -784,7 +784,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.01516023164381207</v>
+        <v>0.01582986771951203</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -792,7 +792,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.01450565429715974</v>
+        <v>0.01511192362962803</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -800,7 +800,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0.01420183408864713</v>
+        <v>0.01413537587392081</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -808,7 +808,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>0.01416365359268038</v>
+        <v>0.01399841550933389</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -816,7 +816,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0.01414628381254083</v>
+        <v>0.0137083325281932</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -824,7 +824,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0.01413990001292781</v>
+        <v>0.01313802373283533</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -832,7 +832,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0.01390072324419604</v>
+        <v>0.01272641534267117</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -840,7 +840,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>0.01369362885317602</v>
+        <v>0.01237227983340136</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -848,7 +848,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>0.01355305009915854</v>
+        <v>0.01231149445270778</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -856,7 +856,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>0.01286468993282018</v>
+        <v>0.01204381666299293</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -864,7 +864,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>0.01247902149358228</v>
+        <v>0.0119599830706217</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -872,7 +872,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>0.01229760490717662</v>
+        <v>0.01177417397066422</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -880,7 +880,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>0.01219063594778442</v>
+        <v>0.01152634920301366</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -888,7 +888,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>0.01184866702253755</v>
+        <v>0.01135345439192512</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -896,7 +896,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>0.01135059167823444</v>
+        <v>0.01118054798620545</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -904,7 +904,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>0.01133840953616118</v>
+        <v>0.01116486399348972</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -912,7 +912,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>0.01082070738155321</v>
+        <v>0.01112163965331748</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -920,7 +920,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>0.01053962244740371</v>
+        <v>0.01105006124565208</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -928,7 +928,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>0.01045569405234399</v>
+        <v>0.01100649395303363</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -936,7 +936,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>0.009938573301062121</v>
+        <v>0.01097355176075984</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -944,7 +944,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>0.009905108156889894</v>
+        <v>0.01096833415977829</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -952,7 +952,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>0.009880676729988901</v>
+        <v>0.01093709527814052</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -960,7 +960,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>0.009825459576936479</v>
+        <v>0.010734074658061</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -968,7 +968,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>0.009416476488796859</v>
+        <v>0.0104085340631062</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -976,7 +976,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>0.00916648763811705</v>
+        <v>0.0102925571053449</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -984,7 +984,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>0.008857751296394496</v>
+        <v>0.01014167587641495</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -992,7 +992,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>0.008746361143709962</v>
+        <v>0.009935830319211487</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1000,7 +1000,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>0.00867217712521646</v>
+        <v>0.009933560579474582</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1008,7 +1008,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>0.008546230066350328</v>
+        <v>0.009857179297091062</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1016,7 +1016,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>0.008309717277598458</v>
+        <v>0.009489875595594485</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1024,7 +1024,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>0.008247604714361378</v>
+        <v>0.009245048580780332</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1032,7 +1032,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>0.008162703688851315</v>
+        <v>0.009230529762467377</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1040,7 +1040,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>0.008157457950539983</v>
+        <v>0.009219269935803914</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1048,7 +1048,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>0.00798379330548381</v>
+        <v>0.009198965763936711</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1056,7 +1056,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>0.007923334165648901</v>
+        <v>0.009112397710773568</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1064,7 +1064,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>0.007874426518309819</v>
+        <v>0.009048693456715273</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1072,7 +1072,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>0.007851128502230666</v>
+        <v>0.009023811335850937</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1080,7 +1080,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>0.007707433295517267</v>
+        <v>0.008642553864985152</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1088,7 +1088,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>0.007575624233768899</v>
+        <v>0.008273004654174097</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1096,7 +1096,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>0.007322748628351555</v>
+        <v>0.008193723785049133</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1104,7 +1104,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>0.007141359712669389</v>
+        <v>0.007830816608589281</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1112,7 +1112,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>0.006966110899526436</v>
+        <v>0.007723946466956468</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1120,7 +1120,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>0.006900796825277358</v>
+        <v>0.007591551412233818</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1128,7 +1128,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>0.0067639883575949</v>
+        <v>0.007409298555008398</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1136,7 +1136,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>0.006731476378489264</v>
+        <v>0.007269338202058378</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1144,7 +1144,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>0.006550653474452345</v>
+        <v>0.006842397749200022</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1152,7 +1152,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>0.006549806617815446</v>
+        <v>0.006730669858772827</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1160,7 +1160,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>0.006441180221684971</v>
+        <v>0.006561100106964059</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1168,7 +1168,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>0.006112035250939973</v>
+        <v>0.006544147480656693</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1176,7 +1176,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>0.006095060210203432</v>
+        <v>0.006541238850162535</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1184,7 +1184,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>0.005699849985351438</v>
+        <v>0.006502361375792598</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1192,7 +1192,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>0.005385778120573377</v>
+        <v>0.00636172724304832</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1200,7 +1200,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>0.005346325228384051</v>
+        <v>0.00623765338456015</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1208,7 +1208,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>0.005292710678882232</v>
+        <v>0.006192798063363246</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1216,7 +1216,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>0.005258091271774365</v>
+        <v>0.005891386280505636</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1224,7 +1224,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>0.005185829473193721</v>
+        <v>0.005776222630861469</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1232,7 +1232,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>0.005169627183847514</v>
+        <v>0.005651715543686151</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1240,7 +1240,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>0.005140998211807316</v>
+        <v>0.005582006405331416</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1248,7 +1248,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>0.005006552165079747</v>
+        <v>0.005436481853264739</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1256,7 +1256,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>0.005000008041588865</v>
+        <v>0.005119226885619476</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1264,7 +1264,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>0.004951223647807985</v>
+        <v>0.005079663211494748</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1272,7 +1272,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>0.00490070124250191</v>
+        <v>0.005064840403025348</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1280,7 +1280,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>0.004871986334786748</v>
+        <v>0.004965646369186418</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1288,7 +1288,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>0.0048637080903548</v>
+        <v>0.004944216651435988</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1296,7 +1296,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>0.004680788316578859</v>
+        <v>0.004914836705640782</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1304,7 +1304,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>0.004673212379232506</v>
+        <v>0.004678187387568646</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1312,7 +1312,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>0.004635972227292983</v>
+        <v>0.004542363901216821</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1320,7 +1320,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>0.004584024596010166</v>
+        <v>0.004389099160376293</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1328,7 +1328,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>0.004530613727102549</v>
+        <v>0.004255520921993537</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1336,7 +1336,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>0.00425640656086449</v>
+        <v>0.004215179410726746</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1344,7 +1344,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>0.004209439374983614</v>
+        <v>0.004104421355805174</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1352,7 +1352,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>0.003893186607347959</v>
+        <v>0.004083447182367988</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1360,7 +1360,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>0.003851018387279571</v>
+        <v>0.00402024965431058</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1368,7 +1368,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>0.003824450143602116</v>
+        <v>0.003997050602111966</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1376,7 +1376,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>0.003816024208288622</v>
+        <v>0.003891359828195061</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1384,7 +1384,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>0.003487896429946546</v>
+        <v>0.003215648327096518</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1392,7 +1392,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>0.003447771820577098</v>
+        <v>0.002599114541600634</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1400,7 +1400,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>0.002998359697162424</v>
+        <v>0.002509099945785947</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1408,7 +1408,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>0.002966409010481277</v>
+        <v>0.002385452850557374</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1416,7 +1416,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>0.002918144249329059</v>
+        <v>0.002329728375159458</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1424,7 +1424,7 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>0.002864559867967568</v>
+        <v>0.002317278233438201</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1432,7 +1432,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>0.00285960075631956</v>
+        <v>0.002304010931306244</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1440,7 +1440,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>0.002618117540598177</v>
+        <v>0.002126707668143869</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1448,7 +1448,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>0.002381504602376498</v>
+        <v>0.002050777742927375</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1456,7 +1456,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>0.00229503678997748</v>
+        <v>0.001959754061613579</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1464,7 +1464,7 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>0.002084198779579445</v>
+        <v>0.001928411666472996</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1472,7 +1472,7 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>0.001973534583794492</v>
+        <v>0.001709668007947516</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1480,7 +1480,7 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>0.001882409796595689</v>
+        <v>0.001694975859817349</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1488,7 +1488,7 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>0.001718023642824807</v>
+        <v>0.001009152066074705</v>
       </c>
     </row>
   </sheetData>
